--- a/files_Basics-of-web-technologies/BasicsOf WebTechologies_Evaluation.xlsx
+++ b/files_Basics-of-web-technologies/BasicsOf WebTechologies_Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp600nn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp600nn\PycharmProjects\vmarshirov_index\files_Basics-of-web-technologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D14945F-F7F3-431B-898D-776F4F806BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D3AD73-9B52-47FA-8B25-D1456E32AC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Логины Группы Оценки" sheetId="1" r:id="rId1"/>
@@ -1188,13 +1188,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AR23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,6 +1872,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
@@ -10242,9 +10247,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10439,19 +10447,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A4B0AE6-A203-43A3-8AE4-334C20351ECD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6970EFAF-E3BE-4CAA-AE47-008A1A462A26}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10476,9 +10480,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6970EFAF-E3BE-4CAA-AE47-008A1A462A26}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A4B0AE6-A203-43A3-8AE4-334C20351ECD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>